--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,19 +30,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huangxin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hx1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桂林电子科技大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hx123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林电子科技大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -408,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -422,16 +434,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>18076757556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>17635465546</v>
       </c>
     </row>
   </sheetData>

--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,15 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hx123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lb123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,7 +399,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -436,8 +428,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -448,13 +440,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>17635465546</v>
